--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.254360051851641</v>
+        <v>1.047548791589884</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.164754254667798</v>
+        <v>2.139304837662593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.931007980432931</v>
+        <v>3.983549232668262</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4575292620161774</v>
+        <v>0.4236164120693788</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6232702699768295</v>
+        <v>0.6026742678911753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3296172590001428</v>
+        <v>0.3992433639892686</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.234950287335995</v>
+        <v>5.306978594003126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.577934744327306</v>
+        <v>7.457681724133497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.57608976286765</v>
+        <v>16.80937236185502</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16.86461404787215</v>
+        <v>18.26061413653728</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10.13240097769489</v>
+        <v>10.70865805855756</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7.850091134412998</v>
+        <v>7.676421491905764</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7746515148597325</v>
+        <v>0.8031200294940923</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.47370738117934</v>
+        <v>0.7709227076180237</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.56678093403417</v>
+        <v>3.271984864522401</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1187027332266942</v>
+        <v>0.1347125963490049</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03654535450644277</v>
+        <v>0.12161979212737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4017152787776795</v>
+        <v>0.391627169901812</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.162508138593854</v>
+        <v>6.033632264922772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.752844549826791</v>
+        <v>5.791149089804843</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.62081595350699</v>
+        <v>11.54370413128306</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.342429154026365</v>
+        <v>2.205263517723946</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.598970685073387</v>
+        <v>2.641016140297261</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.677338119489823</v>
+        <v>2.885890939296158</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.063128629864096</v>
+        <v>6.801012137208027</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.750082778245252</v>
+        <v>1.85876836529515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.695761782916327</v>
+        <v>6.591199722112334</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.9827585564593613</v>
+        <v>0.9427586085245439</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2444642168346361</v>
+        <v>0.2514435395123707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5996712109080796</v>
+        <v>0.6177478473302036</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.60975542490337</v>
+        <v>13.77861837642704</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.611822267979358</v>
+        <v>7.594516101581342</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.97849831787598</v>
+        <v>13.88599643063082</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.131085477160608</v>
+        <v>3.187244084179973</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.782240610277312</v>
+        <v>1.834677803534392</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.05210192383718</v>
+        <v>2.107829098500122</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.85816811968018</v>
+        <v>4.727518454241953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.879498831315506</v>
+        <v>3.499041377714349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.002123974988534</v>
+        <v>5.657135374325613</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.323313650253881</v>
+        <v>0.3025796652819941</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2369647761420179</v>
+        <v>0.2252091521764477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2727478945716083</v>
+        <v>0.2609800865864456</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.16007235167942</v>
+        <v>14.0170530769143</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.44061094921732</v>
+        <v>12.17514109308383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.93104301044608</v>
+        <v>13.86769299213403</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.309459690851448</v>
+        <v>1.261493642077268</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.060830881590079</v>
+        <v>1.037578244485751</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8417231128191351</v>
+        <v>0.8447092951653424</v>
       </c>
     </row>
     <row r="16">
@@ -955,7 +955,7 @@
         <v>0.6632292723871399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4572830636101</v>
+        <v>0.4572830636101001</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.02868207613362</v>
+        <v>12.87433831708847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.198217849802566</v>
+        <v>8.983598022837397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.976394805788204</v>
+        <v>7.551619902124239</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4466045632735817</v>
+        <v>0.4388019143659299</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3230639951834646</v>
+        <v>0.3334935573604925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2419616472669703</v>
+        <v>0.2583387607464225</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.53121856763508</v>
+        <v>26.38825784336442</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.5410487527249</v>
+        <v>21.66741765887058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.76108738526284</v>
+        <v>16.67461974739095</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.139493377917196</v>
+        <v>1.143698830777367</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.047088169357882</v>
+        <v>1.05434096925615</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6917964076423838</v>
+        <v>0.6913903948349995</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.736457844802942</v>
+        <v>2.500124015796832</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.75988772004074</v>
+        <v>11.76742082246262</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13.29844539570533</v>
+        <v>13.37625673974906</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04901560109716651</v>
+        <v>0.04241989872809361</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3034132653325873</v>
+        <v>0.3137340282292497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4276733763085879</v>
+        <v>0.4370257952195061</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.17754162937663</v>
+        <v>18.40293742973386</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>26.38951614688205</v>
+        <v>26.37913139044865</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.27219316354306</v>
+        <v>23.91497169999466</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.413589464099311</v>
+        <v>0.390864467499518</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9010630014876362</v>
+        <v>0.8873161585473823</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9300843963633181</v>
+        <v>0.9623439568565889</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>12.01612793482584</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25.09629206242926</v>
+        <v>25.09629206242928</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.1830117655047687</v>
@@ -1119,7 +1119,7 @@
         <v>0.2357401841197094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.576433637218046</v>
+        <v>0.5764336372180462</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.309130910566076</v>
+        <v>4.164524096695001</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.490236202191396</v>
+        <v>4.099512851053326</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18.90960850618287</v>
+        <v>18.95627776289958</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.0600321005179635</v>
+        <v>0.06417328885140583</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08246133387049449</v>
+        <v>0.06976502019569689</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3941826495617939</v>
+        <v>0.3902683517226667</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.82308664449924</v>
+        <v>19.7860931507706</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.53082758093897</v>
+        <v>19.62695225937331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30.62495906644019</v>
+        <v>30.26276402242617</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.3277879587704685</v>
+        <v>0.3242284862731186</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.419131566223319</v>
+        <v>0.4141741531134118</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7916276206482474</v>
+        <v>0.7555233674676336</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>10.84831517334078</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14.21944349234845</v>
+        <v>14.21944349234846</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.716799690448169</v>
@@ -1201,7 +1201,7 @@
         <v>0.7269700004991121</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7836904203883435</v>
+        <v>0.7836904203883437</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>10.05703315403035</v>
+        <v>10.15803503114669</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.8924393673193</v>
+        <v>8.883470608041645</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12.29158112145586</v>
+        <v>12.28102926966568</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5531039830019396</v>
+        <v>0.5582352641071018</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.551352596788361</v>
+        <v>0.5577487615565417</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6458429313262812</v>
+        <v>0.6373447632403265</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.35528733689984</v>
+        <v>14.44510735750298</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.91805842303818</v>
+        <v>12.88855108982234</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.99644098765056</v>
+        <v>15.96871671590727</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8892364272078567</v>
+        <v>0.9009819675540907</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9120599177522103</v>
+        <v>0.9038514194625049</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9394460355841453</v>
+        <v>0.9268936167470478</v>
       </c>
     </row>
     <row r="28">
